--- a/biology/Zoologie/Heterometrus_longimanus/Heterometrus_longimanus.xlsx
+++ b/biology/Zoologie/Heterometrus_longimanus/Heterometrus_longimanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterometrus longimanus est une espèce de scorpions de la famille des Scorpionidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Indonésie à Java à Sumatra et au Kalimantan, en Inde dans les Îles Andaman-et-Nicobar aux îles Andaman, en Malaisie, à Singapour, au Brunei et aux Philippines[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Indonésie à Java à Sumatra et au Kalimantan, en Inde dans les Îles Andaman-et-Nicobar aux îles Andaman, en Malaisie, à Singapour, au Brunei et aux Philippines.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heterometrus longimanus mesure de 90 à 140 mm[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heterometrus longimanus mesure de 90 à 140 mm
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Scorpio longimanus par Herbst en 1800. Elle est placée dans le genre Heterometrus par Werner en 1902[3].
-Les sous-espèces Heterometrus longimanus bengkalitensis[4], Heterometrus longimanus borneensis[5] et Heterometrus longimanus marmoratus[4] ont été placées en synonymie par Prendini et Loria en 2020[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Scorpio longimanus par Herbst en 1800. Elle est placée dans le genre Heterometrus par Werner en 1902.
+Les sous-espèces Heterometrus longimanus bengkalitensis, Heterometrus longimanus borneensis et Heterometrus longimanus marmoratus ont été placées en synonymie par Prendini et Loria en 2020.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Herbst, 1800 : Naturgeschichte der Skorpionen. Natursystem der ungeflügelten Insekten, vol. 4, p. 1-86.</t>
         </is>
